--- a/farmer_registry_input/processed/RSBSA Aklan Rice Farmers.xlsx
+++ b/farmer_registry_input/processed/RSBSA Aklan Rice Farmers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIGABYTE\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilmour59/python_scripts/drrm/disaster_analysis_local/farmer_registry_input/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8F8BC71-5C71-4164-BFC8-368F8AA85C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8998B62-F4A9-D143-B606-5F938804282D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{7564F815-BB64-46BF-9A88-A58B9CB9DF06}"/>
+    <workbookView xWindow="9380" yWindow="3340" windowWidth="14400" windowHeight="15600" xr2:uid="{7564F815-BB64-46BF-9A88-A58B9CB9DF06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,9 +378,6 @@
     <t>YAWAN</t>
   </si>
   <si>
-    <t>KALIBO Capital</t>
-  </si>
-  <si>
     <t>ANDAGAW</t>
   </si>
   <si>
@@ -949,6 +946,9 @@
   </si>
   <si>
     <t>Total Declared Rice Area</t>
+  </si>
+  <si>
+    <t>KALIBO</t>
   </si>
 </sst>
 </file>
@@ -956,7 +956,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -1002,13 +1002,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -1030,9 +1030,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1070,7 +1070,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1176,7 +1176,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1318,7 +1318,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1328,27 +1328,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33D8401-A274-49E1-BF85-4AC17E89FD3F}">
   <dimension ref="A1:C357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +1361,7 @@
         <v>1787.5057999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1370,7 +1372,7 @@
         <v>231.83450000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1381,7 +1383,7 @@
         <v>86.577400000000011</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1392,7 +1394,7 @@
         <v>148.1069</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1403,7 +1405,7 @@
         <v>65.04849999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1414,7 +1416,7 @@
         <v>169.89950000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1425,7 +1427,7 @@
         <v>99.818599999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1436,7 +1438,7 @@
         <v>100.593</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1447,7 +1449,7 @@
         <v>173.43729999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1458,7 +1460,7 @@
         <v>89.931599999999989</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1469,7 +1471,7 @@
         <v>149.84500000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1480,7 +1482,7 @@
         <v>102.3326</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1491,7 +1493,7 @@
         <v>55.636100000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1502,7 +1504,7 @@
         <v>194.04329999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1513,7 +1515,7 @@
         <v>120.40150000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1524,7 +1526,7 @@
         <v>1350.5521000000026</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1535,7 +1537,7 @@
         <v>229.64999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1546,7 +1548,7 @@
         <v>214.97470000000013</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1557,7 +1559,7 @@
         <v>197.56909999999991</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1568,7 +1570,7 @@
         <v>95.999999999999972</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1579,7 +1581,7 @@
         <v>143.69350000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1590,7 +1592,7 @@
         <v>187.51369999999991</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1601,7 +1603,7 @@
         <v>51.354999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1612,7 +1614,7 @@
         <v>176.96999999999991</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1623,7 +1625,7 @@
         <v>19.419999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1634,7 +1636,7 @@
         <v>33.406099999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1645,7 +1647,7 @@
         <v>2480.011100000002</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1656,7 +1658,7 @@
         <v>125.08499999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1667,7 +1669,7 @@
         <v>53.198999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1678,7 +1680,7 @@
         <v>214.55949999999987</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1689,7 +1691,7 @@
         <v>27.427799999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -1700,7 +1702,7 @@
         <v>6.3622000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1711,7 +1713,7 @@
         <v>25.063499999999991</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -1722,7 +1724,7 @@
         <v>73.532599999999988</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -1733,7 +1735,7 @@
         <v>94.110999999999976</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -1744,7 +1746,7 @@
         <v>120.3372</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -1755,7 +1757,7 @@
         <v>60.643100000000011</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -1766,7 +1768,7 @@
         <v>35.134800000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -1777,7 +1779,7 @@
         <v>74.412900000000022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -1788,7 +1790,7 @@
         <v>160.29529999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -1799,7 +1801,7 @@
         <v>69.200199999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -1810,7 +1812,7 @@
         <v>143.90829999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -1821,7 +1823,7 @@
         <v>64.23429999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -1832,7 +1834,7 @@
         <v>170.34710000000007</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -1843,7 +1845,7 @@
         <v>10.556800000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -1854,7 +1856,7 @@
         <v>117.07230000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -1865,7 +1867,7 @@
         <v>91.650599999999983</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -1876,7 +1878,7 @@
         <v>144.08159999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -1887,7 +1889,7 @@
         <v>46.758400000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -1898,7 +1900,7 @@
         <v>65.559700000000021</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -1909,7 +1911,7 @@
         <v>84.563500000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -1920,7 +1922,7 @@
         <v>47.715600000000016</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -1931,7 +1933,7 @@
         <v>78.633899999999954</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -1942,7 +1944,7 @@
         <v>48.367400000000011</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -1953,7 +1955,7 @@
         <v>114.15539999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>53</v>
       </c>
@@ -1964,7 +1966,7 @@
         <v>33.852800000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -1975,7 +1977,7 @@
         <v>79.189300000000017</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>55</v>
       </c>
@@ -1986,7 +1988,7 @@
         <v>992.46329999999864</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>56</v>
       </c>
@@ -1997,7 +1999,7 @@
         <v>117.56800000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>57</v>
       </c>
@@ -2008,7 +2010,7 @@
         <v>120.62310000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>58</v>
       </c>
@@ -2019,7 +2021,7 @@
         <v>11.93</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2030,7 +2032,7 @@
         <v>66.097800000000049</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>59</v>
       </c>
@@ -2041,7 +2043,7 @@
         <v>27.984799999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>60</v>
       </c>
@@ -2052,7 +2054,7 @@
         <v>110.96070000000009</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>61</v>
       </c>
@@ -2063,7 +2065,7 @@
         <v>104.83810000000008</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>62</v>
       </c>
@@ -2074,7 +2076,7 @@
         <v>54.633400000000009</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>63</v>
       </c>
@@ -2085,7 +2087,7 @@
         <v>8.7922999999999991</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>64</v>
       </c>
@@ -2096,7 +2098,7 @@
         <v>11.524599999999996</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>65</v>
       </c>
@@ -2107,7 +2109,7 @@
         <v>20.609999999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>66</v>
       </c>
@@ -2118,7 +2120,7 @@
         <v>45.973899999999993</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -2129,7 +2131,7 @@
         <v>107.25449999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>67</v>
       </c>
@@ -2140,7 +2142,7 @@
         <v>40.432999999999993</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>68</v>
       </c>
@@ -2151,7 +2153,7 @@
         <v>40.691699999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>69</v>
       </c>
@@ -2162,7 +2164,7 @@
         <v>75.243800000000007</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -2173,7 +2175,7 @@
         <v>15.5031</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>70</v>
       </c>
@@ -2184,7 +2186,7 @@
         <v>2.2605</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>71</v>
       </c>
@@ -2195,7 +2197,7 @@
         <v>9.5400000000000027</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2206,7 +2208,7 @@
         <v>283.60509999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>73</v>
       </c>
@@ -2217,7 +2219,7 @@
         <v>14.466299999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>74</v>
       </c>
@@ -2228,7 +2230,7 @@
         <v>0.51770000000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>75</v>
       </c>
@@ -2239,7 +2241,7 @@
         <v>18.316199999999995</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>76</v>
       </c>
@@ -2250,7 +2252,7 @@
         <v>29.061600000000006</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>77</v>
       </c>
@@ -2261,7 +2263,7 @@
         <v>59.808800000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>78</v>
       </c>
@@ -2272,7 +2274,7 @@
         <v>61.276100000000028</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>79</v>
       </c>
@@ -2283,7 +2285,7 @@
         <v>18.876799999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>80</v>
       </c>
@@ -2294,7 +2296,7 @@
         <v>3.4998999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>81</v>
       </c>
@@ -2305,7 +2307,7 @@
         <v>41.78919999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>82</v>
       </c>
@@ -2316,7 +2318,7 @@
         <v>4.1921999999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -2327,7 +2329,7 @@
         <v>22.468699999999995</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>83</v>
       </c>
@@ -2338,7 +2340,7 @@
         <v>2.7918000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>84</v>
       </c>
@@ -2349,7 +2351,7 @@
         <v>6.5397999999999996</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>85</v>
       </c>
@@ -2360,7 +2362,7 @@
         <v>2355.4955000000036</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>86</v>
       </c>
@@ -2371,7 +2373,7 @@
         <v>110.09839999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>87</v>
       </c>
@@ -2382,7 +2384,7 @@
         <v>62.865800000000029</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>88</v>
       </c>
@@ -2393,7 +2395,7 @@
         <v>87.134199999999979</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>89</v>
       </c>
@@ -2404,7 +2406,7 @@
         <v>7.3549999999999995</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>90</v>
       </c>
@@ -2415,7 +2417,7 @@
         <v>194.28739999999996</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>91</v>
       </c>
@@ -2426,7 +2428,7 @@
         <v>2.4808000000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>92</v>
       </c>
@@ -2437,7 +2439,7 @@
         <v>45.483399999999996</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>93</v>
       </c>
@@ -2448,7 +2450,7 @@
         <v>81.501099999999994</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>94</v>
       </c>
@@ -2459,7 +2461,7 @@
         <v>46.119199999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>95</v>
       </c>
@@ -2470,7 +2472,7 @@
         <v>16.386699999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -2481,7 +2483,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>96</v>
       </c>
@@ -2492,7 +2494,7 @@
         <v>59.534800000000011</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>97</v>
       </c>
@@ -2503,7 +2505,7 @@
         <v>27.545000000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>98</v>
       </c>
@@ -2514,7 +2516,7 @@
         <v>117.33899999999996</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>99</v>
       </c>
@@ -2525,7 +2527,7 @@
         <v>16.523199999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>100</v>
       </c>
@@ -2536,7 +2538,7 @@
         <v>8.4775999999999989</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>101</v>
       </c>
@@ -2547,7 +2549,7 @@
         <v>144.07470000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>102</v>
       </c>
@@ -2558,7 +2560,7 @@
         <v>7.0559000000000012</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>103</v>
       </c>
@@ -2569,7 +2571,7 @@
         <v>39.727700000000013</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>104</v>
       </c>
@@ -2580,7 +2582,7 @@
         <v>169.77900000000014</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>105</v>
       </c>
@@ -2591,7 +2593,7 @@
         <v>135.30439999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>106</v>
       </c>
@@ -2602,7 +2604,7 @@
         <v>65.688700000000011</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>107</v>
       </c>
@@ -2613,7 +2615,7 @@
         <v>157.58539999999991</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -2624,7 +2626,7 @@
         <v>67.607799999999983</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>44</v>
       </c>
@@ -2635,7 +2637,7 @@
         <v>3.9996999999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>108</v>
       </c>
@@ -2646,7 +2648,7 @@
         <v>62.389999999999986</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>109</v>
       </c>
@@ -2657,7 +2659,7 @@
         <v>3.9750000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>110</v>
       </c>
@@ -2668,7 +2670,7 @@
         <v>66.395900000000012</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>46</v>
       </c>
@@ -2679,7 +2681,7 @@
         <v>71.610199999999978</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>111</v>
       </c>
@@ -2690,7 +2692,7 @@
         <v>157.68870000000004</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>112</v>
       </c>
@@ -2701,7 +2703,7 @@
         <v>101.23440000000006</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>113</v>
       </c>
@@ -2712,7 +2714,7 @@
         <v>114.41729999999991</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>114</v>
       </c>
@@ -2723,7 +2725,7 @@
         <v>19.692499999999995</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>115</v>
       </c>
@@ -2734,7 +2736,7 @@
         <v>76.441600000000008</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>116</v>
       </c>
@@ -2745,9 +2747,9 @@
         <v>5.0750000000000002</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>117</v>
+        <v>307</v>
       </c>
       <c r="B135" s="5">
         <v>2499</v>
@@ -2756,9 +2758,9 @@
         <v>1279.3063000000018</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B136" s="4">
         <v>125</v>
@@ -2767,9 +2769,9 @@
         <v>68.849299999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B137" s="4">
         <v>8</v>
@@ -2778,9 +2780,9 @@
         <v>2.7635000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B138" s="4">
         <v>10</v>
@@ -2789,9 +2791,9 @@
         <v>4.5217999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B139" s="4">
         <v>159</v>
@@ -2800,9 +2802,9 @@
         <v>67.257899999999964</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B140" s="4">
         <v>83</v>
@@ -2811,9 +2813,9 @@
         <v>46.053699999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B141" s="4">
         <v>38</v>
@@ -2822,9 +2824,9 @@
         <v>26.344900000000003</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B142" s="4">
         <v>138</v>
@@ -2833,9 +2835,9 @@
         <v>75.130199999999988</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B143" s="4">
         <v>363</v>
@@ -2844,9 +2846,9 @@
         <v>183.25390000000007</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B144" s="4">
         <v>363</v>
@@ -2855,9 +2857,9 @@
         <v>162.3527</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B145" s="4">
         <v>114</v>
@@ -2866,9 +2868,9 @@
         <v>51.171199999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B146" s="4">
         <v>7</v>
@@ -2877,9 +2879,9 @@
         <v>4.4108000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B147" s="4">
         <v>306</v>
@@ -2888,7 +2890,7 @@
         <v>141.37329999999997</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -2899,9 +2901,9 @@
         <v>104.38990000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B149" s="4">
         <v>325</v>
@@ -2910,9 +2912,9 @@
         <v>163.64670000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B150" s="4">
         <v>282</v>
@@ -2921,9 +2923,9 @@
         <v>145.46310000000017</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B151" s="4">
         <v>63</v>
@@ -2932,9 +2934,9 @@
         <v>32.323399999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B153" s="5">
         <v>1862</v>
@@ -2943,9 +2945,9 @@
         <v>1173.9990999999986</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B154" s="4">
         <v>238</v>
@@ -2954,9 +2956,9 @@
         <v>187.13819999999996</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B155" s="4">
         <v>137</v>
@@ -2965,9 +2967,9 @@
         <v>79.431600000000017</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B156" s="4">
         <v>152</v>
@@ -2976,9 +2978,9 @@
         <v>97.483000000000033</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B157" s="4">
         <v>228</v>
@@ -2987,9 +2989,9 @@
         <v>169.4973</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B158" s="4">
         <v>197</v>
@@ -2998,9 +3000,9 @@
         <v>115.70909999999991</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B159" s="4">
         <v>130</v>
@@ -3009,9 +3011,9 @@
         <v>73.182399999999973</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B160" s="4">
         <v>109</v>
@@ -3020,7 +3022,7 @@
         <v>51.239999999999981</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -3031,7 +3033,7 @@
         <v>93.348200000000048</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>112</v>
       </c>
@@ -3042,9 +3044,9 @@
         <v>73.7898</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B163" s="4">
         <v>84</v>
@@ -3053,9 +3055,9 @@
         <v>40.729999999999997</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B164" s="4">
         <v>145</v>
@@ -3064,9 +3066,9 @@
         <v>91.019199999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B165" s="4">
         <v>136</v>
@@ -3075,9 +3077,9 @@
         <v>101.43029999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B167" s="5">
         <v>5870</v>
@@ -3086,9 +3088,9 @@
         <v>2748.0594999999753</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B168" s="4">
         <v>186</v>
@@ -3097,9 +3099,9 @@
         <v>71.851799999999997</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B169" s="4">
         <v>213</v>
@@ -3108,9 +3110,9 @@
         <v>81.029999999999973</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B170" s="4">
         <v>80</v>
@@ -3119,9 +3121,9 @@
         <v>26.0364</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B171" s="4">
         <v>73</v>
@@ -3130,9 +3132,9 @@
         <v>51.154999999999987</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B172" s="4">
         <v>217</v>
@@ -3141,9 +3143,9 @@
         <v>113.58909999999996</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B173" s="4">
         <v>102</v>
@@ -3152,9 +3154,9 @@
         <v>68.119100000000003</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B174" s="4">
         <v>115</v>
@@ -3163,9 +3165,9 @@
         <v>52.94009999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B175" s="4">
         <v>62</v>
@@ -3174,9 +3176,9 @@
         <v>43.104600000000005</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B176" s="4">
         <v>641</v>
@@ -3185,9 +3187,9 @@
         <v>151.79460000000006</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B177" s="4">
         <v>251</v>
@@ -3196,9 +3198,9 @@
         <v>110.07849999999992</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B178" s="4">
         <v>168</v>
@@ -3207,9 +3209,9 @@
         <v>81.537499999999966</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B179" s="4">
         <v>282</v>
@@ -3218,9 +3220,9 @@
         <v>157.47060000000005</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B180" s="4">
         <v>226</v>
@@ -3229,9 +3231,9 @@
         <v>117.92469999999997</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B181" s="4">
         <v>133</v>
@@ -3240,9 +3242,9 @@
         <v>56.942699999999952</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B182" s="4">
         <v>738</v>
@@ -3251,9 +3253,9 @@
         <v>252.19430000000045</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B183" s="4">
         <v>241</v>
@@ -3262,9 +3264,9 @@
         <v>169.67120000000006</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B184" s="4">
         <v>239</v>
@@ -3273,9 +3275,9 @@
         <v>192.58000000000013</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B185" s="4">
         <v>618</v>
@@ -3284,9 +3286,9 @@
         <v>210.28280000000061</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B186" s="4">
         <v>239</v>
@@ -3295,9 +3297,9 @@
         <v>117.34979999999996</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B187" s="4">
         <v>148</v>
@@ -3306,7 +3308,7 @@
         <v>63.344199999999972</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -3317,7 +3319,7 @@
         <v>183.74350000000018</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>109</v>
       </c>
@@ -3328,9 +3330,9 @@
         <v>84.904999999999916</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B190" s="4">
         <v>277</v>
@@ -3339,7 +3341,7 @@
         <v>185.85700000000014</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>47</v>
       </c>
@@ -3350,9 +3352,9 @@
         <v>104.55699999999993</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B193" s="5">
         <v>2812</v>
@@ -3361,9 +3363,9 @@
         <v>1025.3451000000009</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B194" s="4">
         <v>151</v>
@@ -3372,9 +3374,9 @@
         <v>62.221200000000024</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B195" s="4">
         <v>117</v>
@@ -3383,9 +3385,9 @@
         <v>38.092800000000011</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B196" s="4">
         <v>95</v>
@@ -3394,9 +3396,9 @@
         <v>24.72069999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B197" s="4">
         <v>85</v>
@@ -3405,9 +3407,9 @@
         <v>28.171199999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B198" s="4">
         <v>93</v>
@@ -3416,9 +3418,9 @@
         <v>33.871099999999991</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B199" s="4">
         <v>81</v>
@@ -3427,9 +3429,9 @@
         <v>24.690999999999995</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B200" s="4">
         <v>93</v>
@@ -3438,9 +3440,9 @@
         <v>37.749999999999979</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B201" s="4">
         <v>85</v>
@@ -3449,9 +3451,9 @@
         <v>41.562000000000005</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B202" s="4">
         <v>19</v>
@@ -3460,9 +3462,9 @@
         <v>4.8500000000000005</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B203" s="4">
         <v>83</v>
@@ -3471,9 +3473,9 @@
         <v>34.345999999999989</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B204" s="4">
         <v>71</v>
@@ -3482,9 +3484,9 @@
         <v>30.514999999999993</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B205" s="4">
         <v>107</v>
@@ -3493,9 +3495,9 @@
         <v>43.650900000000014</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B206" s="4">
         <v>53</v>
@@ -3504,9 +3506,9 @@
         <v>28.91</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B207" s="4">
         <v>184</v>
@@ -3515,9 +3517,9 @@
         <v>58.088999999999977</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B208" s="4">
         <v>41</v>
@@ -3526,9 +3528,9 @@
         <v>17.287600000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B209" s="4">
         <v>42</v>
@@ -3537,9 +3539,9 @@
         <v>13.324999999999998</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B210" s="4">
         <v>150</v>
@@ -3548,9 +3550,9 @@
         <v>56.508899999999997</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B211" s="4">
         <v>118</v>
@@ -3559,9 +3561,9 @@
         <v>37.176899999999982</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B212" s="4">
         <v>421</v>
@@ -3570,7 +3572,7 @@
         <v>124.92100000000012</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>11</v>
       </c>
@@ -3581,7 +3583,7 @@
         <v>74.339199999999991</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>111</v>
       </c>
@@ -3592,9 +3594,9 @@
         <v>65.575199999999981</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B215" s="4">
         <v>73</v>
@@ -3603,9 +3605,9 @@
         <v>22.950499999999991</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B216" s="4">
         <v>103</v>
@@ -3614,9 +3616,9 @@
         <v>41.956899999999997</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B217" s="4">
         <v>70</v>
@@ -3625,9 +3627,9 @@
         <v>32.170700000000004</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B218" s="4">
         <v>116</v>
@@ -3636,9 +3638,9 @@
         <v>47.692300000000017</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B220" s="5">
         <v>3695</v>
@@ -3647,9 +3649,9 @@
         <v>2057.7694000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B221" s="4">
         <v>248</v>
@@ -3658,9 +3660,9 @@
         <v>120.72629999999994</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B222" s="4">
         <v>182</v>
@@ -3669,9 +3671,9 @@
         <v>104.84469999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B223" s="4">
         <v>4</v>
@@ -3680,9 +3682,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B224" s="4">
         <v>11</v>
@@ -3691,9 +3693,9 @@
         <v>6.4651000000000005</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B225" s="4">
         <v>258</v>
@@ -3702,9 +3704,9 @@
         <v>174.386</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B226" s="4">
         <v>257</v>
@@ -3713,9 +3715,9 @@
         <v>94.036699999999968</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B227" s="4">
         <v>352</v>
@@ -3724,9 +3726,9 @@
         <v>198.37220000000002</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B228" s="4">
         <v>185</v>
@@ -3735,9 +3737,9 @@
         <v>99.218299999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B229" s="4">
         <v>73</v>
@@ -3746,9 +3748,9 @@
         <v>26.675600000000003</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B230" s="4">
         <v>407</v>
@@ -3757,9 +3759,9 @@
         <v>257.11809999999997</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B231" s="4">
         <v>273</v>
@@ -3768,9 +3770,9 @@
         <v>162.46319999999994</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B232" s="4">
         <v>256</v>
@@ -3779,9 +3781,9 @@
         <v>116.19270000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B233" s="4">
         <v>310</v>
@@ -3790,7 +3792,7 @@
         <v>135.08720000000011</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -3801,9 +3803,9 @@
         <v>293.88079999999997</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B235" s="4">
         <v>120</v>
@@ -3812,9 +3814,9 @@
         <v>70.908799999999985</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B236" s="4">
         <v>139</v>
@@ -3823,9 +3825,9 @@
         <v>65.756900000000002</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B237" s="4">
         <v>242</v>
@@ -3834,9 +3836,9 @@
         <v>130.73679999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B239" s="5">
         <v>389</v>
@@ -3845,9 +3847,9 @@
         <v>188.09070000000011</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B240" s="4">
         <v>56</v>
@@ -3856,9 +3858,9 @@
         <v>22.647299999999994</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B241" s="4">
         <v>2</v>
@@ -3867,9 +3869,9 @@
         <v>0.67070000000000007</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B242" s="4">
         <v>67</v>
@@ -3878,9 +3880,9 @@
         <v>25.139800000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B243" s="4">
         <v>8</v>
@@ -3889,9 +3891,9 @@
         <v>4.4257</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B244" s="4">
         <v>19</v>
@@ -3900,9 +3902,9 @@
         <v>17.160600000000002</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B245" s="4">
         <v>44</v>
@@ -3911,9 +3913,9 @@
         <v>23.495299999999997</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B246" s="4">
         <v>22</v>
@@ -3922,9 +3924,9 @@
         <v>8.7461999999999982</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B247" s="4">
         <v>44</v>
@@ -3933,9 +3935,9 @@
         <v>24.161500000000004</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B248" s="4">
         <v>21</v>
@@ -3944,9 +3946,9 @@
         <v>7.5068999999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B249" s="4">
         <v>35</v>
@@ -3955,9 +3957,9 @@
         <v>17.836000000000009</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B250" s="4">
         <v>8</v>
@@ -3966,9 +3968,9 @@
         <v>5.1048</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B251" s="4">
         <v>15</v>
@@ -3977,7 +3979,7 @@
         <v>7.3526000000000007</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>11</v>
       </c>
@@ -3988,9 +3990,9 @@
         <v>21.154199999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B253" s="4">
         <v>6</v>
@@ -3999,9 +4001,9 @@
         <v>2.1450999999999998</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B254" s="4">
         <v>1</v>
@@ -4010,9 +4012,9 @@
         <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B256" s="5">
         <v>3257</v>
@@ -4021,9 +4023,9 @@
         <v>1493.8696000000025</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B257" s="4">
         <v>125</v>
@@ -4032,9 +4034,9 @@
         <v>56.706399999999995</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B258" s="4">
         <v>96</v>
@@ -4043,9 +4045,9 @@
         <v>37.053600000000003</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B259" s="4">
         <v>287</v>
@@ -4054,9 +4056,9 @@
         <v>138.49000000000004</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B260" s="4">
         <v>160</v>
@@ -4065,9 +4067,9 @@
         <v>94.449199999999962</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B261" s="4">
         <v>15</v>
@@ -4076,9 +4078,9 @@
         <v>7.3837999999999973</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B262" s="4">
         <v>54</v>
@@ -4087,9 +4089,9 @@
         <v>20.847200000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B263" s="4">
         <v>124</v>
@@ -4098,9 +4100,9 @@
         <v>55.73810000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B264" s="4">
         <v>129</v>
@@ -4109,9 +4111,9 @@
         <v>46.812000000000026</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B265" s="4">
         <v>345</v>
@@ -4120,9 +4122,9 @@
         <v>150.59550000000002</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B266" s="4">
         <v>240</v>
@@ -4131,9 +4133,9 @@
         <v>94.208299999999994</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B267" s="4">
         <v>151</v>
@@ -4142,9 +4144,9 @@
         <v>67.559700000000007</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B268" s="4">
         <v>153</v>
@@ -4153,9 +4155,9 @@
         <v>70.702799999999954</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B269" s="4">
         <v>185</v>
@@ -4164,9 +4166,9 @@
         <v>108.82710000000004</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B270" s="4">
         <v>9</v>
@@ -4175,7 +4177,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>11</v>
       </c>
@@ -4186,9 +4188,9 @@
         <v>75.955200000000005</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B272" s="4">
         <v>280</v>
@@ -4197,9 +4199,9 @@
         <v>149.96090000000007</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B273" s="4">
         <v>95</v>
@@ -4208,9 +4210,9 @@
         <v>33.356600000000007</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B274" s="4">
         <v>137</v>
@@ -4219,9 +4221,9 @@
         <v>54.587899999999991</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B275" s="4">
         <v>178</v>
@@ -4230,9 +4232,9 @@
         <v>67.273900000000012</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B276" s="4">
         <v>69</v>
@@ -4241,9 +4243,9 @@
         <v>34.545899999999996</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B277" s="4">
         <v>47</v>
@@ -4252,9 +4254,9 @@
         <v>19.8794</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B278" s="4">
         <v>155</v>
@@ -4263,9 +4265,9 @@
         <v>80.826699999999974</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B279" s="4">
         <v>66</v>
@@ -4274,9 +4276,9 @@
         <v>25.559400000000004</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B281" s="5">
         <v>1149</v>
@@ -4285,9 +4287,9 @@
         <v>597.95210000000043</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B282" s="4">
         <v>15</v>
@@ -4296,9 +4298,9 @@
         <v>7.1413000000000002</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B283" s="4">
         <v>87</v>
@@ -4307,9 +4309,9 @@
         <v>49.619900000000015</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B284" s="4">
         <v>78</v>
@@ -4318,7 +4320,7 @@
         <v>35.696100000000008</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>94</v>
       </c>
@@ -4329,9 +4331,9 @@
         <v>78.462600000000023</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B286" s="4">
         <v>55</v>
@@ -4340,7 +4342,7 @@
         <v>19.903199999999991</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>78</v>
       </c>
@@ -4351,9 +4353,9 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B288" s="4">
         <v>10</v>
@@ -4362,9 +4364,9 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B289" s="4">
         <v>14</v>
@@ -4373,9 +4375,9 @@
         <v>6.0401000000000007</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B290" s="4">
         <v>67</v>
@@ -4384,9 +4386,9 @@
         <v>30.878499999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B291" s="4">
         <v>79</v>
@@ -4395,9 +4397,9 @@
         <v>44.238700000000016</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B292" s="4">
         <v>107</v>
@@ -4406,9 +4408,9 @@
         <v>47.430700000000002</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B293" s="4">
         <v>1</v>
@@ -4417,9 +4419,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B294" s="4">
         <v>42</v>
@@ -4428,7 +4430,7 @@
         <v>25.505400000000005</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>11</v>
       </c>
@@ -4439,7 +4441,7 @@
         <v>50.81110000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>110</v>
       </c>
@@ -4450,9 +4452,9 @@
         <v>22.475099999999998</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B297" s="4">
         <v>143</v>
@@ -4461,9 +4463,9 @@
         <v>89.189900000000023</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B298" s="4">
         <v>9</v>
@@ -4472,9 +4474,9 @@
         <v>4.9789000000000003</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B299" s="4">
         <v>94</v>
@@ -4483,9 +4485,9 @@
         <v>43.489700000000013</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B300" s="4">
         <v>56</v>
@@ -4494,9 +4496,9 @@
         <v>35.045899999999996</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B301" s="4">
         <v>1</v>
@@ -4505,9 +4507,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B303" s="5">
         <v>2938</v>
@@ -4516,9 +4518,9 @@
         <v>1380.7708999999959</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B304" s="4">
         <v>262</v>
@@ -4527,9 +4529,9 @@
         <v>114.89259999999993</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B305" s="4">
         <v>88</v>
@@ -4538,9 +4540,9 @@
         <v>57.527699999999996</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B306" s="4">
         <v>15</v>
@@ -4549,9 +4551,9 @@
         <v>6.8168000000000006</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B307" s="4">
         <v>1</v>
@@ -4560,9 +4562,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B308" s="4">
         <v>526</v>
@@ -4571,9 +4573,9 @@
         <v>223.69360000000006</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B309" s="4">
         <v>296</v>
@@ -4582,9 +4584,9 @@
         <v>135.75390000000002</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B310" s="4">
         <v>399</v>
@@ -4593,9 +4595,9 @@
         <v>164.39809999999989</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B311" s="4">
         <v>123</v>
@@ -4604,9 +4606,9 @@
         <v>55.552100000000024</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B312" s="4">
         <v>257</v>
@@ -4615,9 +4617,9 @@
         <v>90.76479999999998</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B313" s="4">
         <v>395</v>
@@ -4626,9 +4628,9 @@
         <v>226.05529999999996</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B314" s="4">
         <v>23</v>
@@ -4637,9 +4639,9 @@
         <v>10.463499999999998</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B315" s="4">
         <v>5</v>
@@ -4648,7 +4650,7 @@
         <v>3.6696999999999997</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>11</v>
       </c>
@@ -4659,7 +4661,7 @@
         <v>27.965199999999996</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>44</v>
       </c>
@@ -4670,9 +4672,9 @@
         <v>20.002099999999999</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B318" s="4">
         <v>431</v>
@@ -4681,9 +4683,9 @@
         <v>230.82760000000005</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B319" s="4">
         <v>29</v>
@@ -4692,9 +4694,9 @@
         <v>12.137899999999998</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B321" s="5">
         <v>1490</v>
@@ -4703,9 +4705,9 @@
         <v>861.95290000000125</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B322" s="4">
         <v>58</v>
@@ -4714,9 +4716,9 @@
         <v>33.83639999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B323" s="4">
         <v>60</v>
@@ -4725,9 +4727,9 @@
         <v>46.126799999999989</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B324" s="4">
         <v>103</v>
@@ -4736,9 +4738,9 @@
         <v>63.6053</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B325" s="4">
         <v>125</v>
@@ -4747,9 +4749,9 @@
         <v>61.570400000000028</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B326" s="4">
         <v>46</v>
@@ -4758,9 +4760,9 @@
         <v>28.826000000000011</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B327" s="4">
         <v>37</v>
@@ -4769,9 +4771,9 @@
         <v>15.3598</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B328" s="4">
         <v>12</v>
@@ -4780,9 +4782,9 @@
         <v>4.0945999999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B329" s="4">
         <v>207</v>
@@ -4791,9 +4793,9 @@
         <v>105.11620000000006</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B330" s="4">
         <v>226</v>
@@ -4802,9 +4804,9 @@
         <v>118.11170000000007</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B331" s="4">
         <v>65</v>
@@ -4813,9 +4815,9 @@
         <v>47.591100000000012</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B332" s="4">
         <v>85</v>
@@ -4824,9 +4826,9 @@
         <v>65.293400000000005</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B333" s="4">
         <v>84</v>
@@ -4835,9 +4837,9 @@
         <v>39.788699999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B334" s="4">
         <v>70</v>
@@ -4846,9 +4848,9 @@
         <v>36.488700000000001</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B335" s="4">
         <v>15</v>
@@ -4857,7 +4859,7 @@
         <v>7.3509999999999991</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>11</v>
       </c>
@@ -4868,9 +4870,9 @@
         <v>81.342600000000004</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B337" s="4">
         <v>9</v>
@@ -4879,9 +4881,9 @@
         <v>10.6282</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B338" s="4">
         <v>162</v>
@@ -4890,9 +4892,9 @@
         <v>96.822000000000003</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B340" s="5">
         <v>2297</v>
@@ -4901,9 +4903,9 @@
         <v>1018.5915000000005</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B341" s="4">
         <v>63</v>
@@ -4912,9 +4914,9 @@
         <v>27.195900000000009</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B342" s="4">
         <v>123</v>
@@ -4923,9 +4925,9 @@
         <v>57.513999999999989</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B343" s="4">
         <v>19</v>
@@ -4934,9 +4936,9 @@
         <v>7.5408999999999997</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B344" s="4">
         <v>51</v>
@@ -4945,9 +4947,9 @@
         <v>24.637899999999998</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B345" s="4">
         <v>107</v>
@@ -4956,9 +4958,9 @@
         <v>60.334499999999991</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B346" s="4">
         <v>25</v>
@@ -4967,9 +4969,9 @@
         <v>17.4176</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B347" s="4">
         <v>57</v>
@@ -4978,9 +4980,9 @@
         <v>33.5595</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B348" s="4">
         <v>395</v>
@@ -4989,7 +4991,7 @@
         <v>157.74880000000007</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>11</v>
       </c>
@@ -5000,9 +5002,9 @@
         <v>66.782599999999974</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B350" s="4">
         <v>232</v>
@@ -5011,9 +5013,9 @@
         <v>105.91829999999993</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B351" s="4">
         <v>290</v>
@@ -5022,9 +5024,9 @@
         <v>113.76710000000006</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B352" s="4">
         <v>250</v>
@@ -5033,9 +5035,9 @@
         <v>103.92070000000001</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B353" s="4">
         <v>35</v>
@@ -5044,9 +5046,9 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B354" s="4">
         <v>449</v>
@@ -5055,9 +5057,9 @@
         <v>186.23670000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B355" s="4">
         <v>92</v>
@@ -5066,9 +5068,9 @@
         <v>45.717000000000006</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B357" s="5">
         <v>45446</v>
